--- a/tests/performance/batch_100_files/xlsx/xlsx_019.xlsx
+++ b/tests/performance/batch_100_files/xlsx/xlsx_019.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,21 +436,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Item1</t>
+          <t>Test</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
-          <t>Item2</t>
+          <t>123</t>
         </is>
-      </c>
-      <c r="B3" t="n">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
